--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Sdc3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H2">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N2">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O2">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P2">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q2">
-        <v>52.55455556113125</v>
+        <v>58.63720578912</v>
       </c>
       <c r="R2">
-        <v>210.218222244525</v>
+        <v>234.54882315648</v>
       </c>
       <c r="S2">
-        <v>0.008183216828079374</v>
+        <v>0.01553229599934623</v>
       </c>
       <c r="T2">
-        <v>0.004945817184927231</v>
+        <v>0.0083787936457879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H3">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I3">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J3">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>16.078605</v>
       </c>
       <c r="O3">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P3">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q3">
-        <v>9.3804591395625</v>
+        <v>8.931386381679999</v>
       </c>
       <c r="R3">
-        <v>56.28275483737499</v>
+        <v>53.58831829008</v>
       </c>
       <c r="S3">
-        <v>0.001460621829380503</v>
+        <v>0.002365817659587793</v>
       </c>
       <c r="T3">
-        <v>0.001324167872402343</v>
+        <v>0.001914336873384465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H4">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I4">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J4">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N4">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O4">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P4">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q4">
-        <v>111.7102847075875</v>
+        <v>117.63726396576</v>
       </c>
       <c r="R4">
-        <v>670.261708245525</v>
+        <v>705.8235837945599</v>
       </c>
       <c r="S4">
-        <v>0.01739429573570141</v>
+        <v>0.03116070726563234</v>
       </c>
       <c r="T4">
-        <v>0.01576928888297521</v>
+        <v>0.02521415404842851</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H5">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I5">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J5">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N5">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O5">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P5">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q5">
-        <v>10.19879230899375</v>
+        <v>12.22742055192</v>
       </c>
       <c r="R5">
-        <v>40.795169235975</v>
+        <v>48.90968220768</v>
       </c>
       <c r="S5">
-        <v>0.001588043661637764</v>
+        <v>0.003238897774289069</v>
       </c>
       <c r="T5">
-        <v>0.0009597904830277135</v>
+        <v>0.001747201836207093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H6">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I6">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J6">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N6">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O6">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P6">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q6">
-        <v>44.2571337602625</v>
+        <v>25.61120214714133</v>
       </c>
       <c r="R6">
-        <v>265.542802561575</v>
+        <v>153.667212882848</v>
       </c>
       <c r="S6">
-        <v>0.006891233650111839</v>
+        <v>0.006784101788190971</v>
       </c>
       <c r="T6">
-        <v>0.006247442025816015</v>
+        <v>0.005489457800475737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H7">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I7">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J7">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N7">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O7">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P7">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q7">
-        <v>163.417298552475</v>
+        <v>105.3498618400107</v>
       </c>
       <c r="R7">
-        <v>980.5037913148498</v>
+        <v>632.099171040064</v>
       </c>
       <c r="S7">
-        <v>0.02544554269816566</v>
+        <v>0.02790592108829463</v>
       </c>
       <c r="T7">
-        <v>0.02306837366044555</v>
+        <v>0.0225804949542846</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J8">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N8">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O8">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P8">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q8">
-        <v>96.036032656044</v>
+        <v>112.53881244528</v>
       </c>
       <c r="R8">
-        <v>576.2161959362641</v>
+        <v>675.2328746716801</v>
       </c>
       <c r="S8">
-        <v>0.01495367376133136</v>
+        <v>0.02981018830606238</v>
       </c>
       <c r="T8">
-        <v>0.01355667426765709</v>
+        <v>0.0241213613591728</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J9">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>16.078605</v>
       </c>
       <c r="O9">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P9">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q9">
         <v>17.14146510492</v>
@@ -1013,10 +1013,10 @@
         <v>154.27318594428</v>
       </c>
       <c r="S9">
-        <v>0.002669080238750236</v>
+        <v>0.004540569529005139</v>
       </c>
       <c r="T9">
-        <v>0.003629594837545375</v>
+        <v>0.005511104991744132</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J10">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N10">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O10">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P10">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q10">
-        <v>204.134778339336</v>
+        <v>225.77402534544</v>
       </c>
       <c r="R10">
-        <v>1837.213005054024</v>
+        <v>2031.96622810896</v>
       </c>
       <c r="S10">
-        <v>0.03178562039897023</v>
+        <v>0.05980484478133079</v>
       </c>
       <c r="T10">
-        <v>0.04322422459742139</v>
+        <v>0.07258798185986376</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J11">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N11">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O11">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P11">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q11">
-        <v>18.636853471236</v>
+        <v>23.46734244348</v>
       </c>
       <c r="R11">
-        <v>111.821120827416</v>
+        <v>140.80405466088</v>
       </c>
       <c r="S11">
-        <v>0.002901925652684278</v>
+        <v>0.006216218938893997</v>
       </c>
       <c r="T11">
-        <v>0.00263082246211157</v>
+        <v>0.005029946868275983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J12">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N12">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O12">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P12">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q12">
-        <v>80.873665426008</v>
+        <v>49.154018104152</v>
       </c>
       <c r="R12">
-        <v>727.862988834072</v>
+        <v>442.386162937368</v>
       </c>
       <c r="S12">
-        <v>0.0125927568561161</v>
+        <v>0.01302031276006971</v>
       </c>
       <c r="T12">
-        <v>0.01712447779270385</v>
+        <v>0.01580337228352324</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J13">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N13">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O13">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P13">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q13">
-        <v>298.6220481323039</v>
+        <v>202.191563925936</v>
       </c>
       <c r="R13">
-        <v>2687.598433190736</v>
+        <v>1819.724075333424</v>
       </c>
       <c r="S13">
-        <v>0.04649813785732256</v>
+        <v>0.05355813219959207</v>
       </c>
       <c r="T13">
-        <v>0.06323129543735087</v>
+        <v>0.06500604997416172</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H14">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I14">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J14">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N14">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O14">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P14">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q14">
-        <v>77.00808991065684</v>
+        <v>92.08587576618</v>
       </c>
       <c r="R14">
-        <v>462.048539463941</v>
+        <v>552.51525459708</v>
       </c>
       <c r="S14">
-        <v>0.01199085199230961</v>
+        <v>0.02439244947829219</v>
       </c>
       <c r="T14">
-        <v>0.01087064471553348</v>
+        <v>0.01973751665908113</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H15">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I15">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J15">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>16.078605</v>
       </c>
       <c r="O15">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P15">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q15">
-        <v>13.74516886518833</v>
+        <v>14.026154993145</v>
       </c>
       <c r="R15">
-        <v>123.706519786695</v>
+        <v>126.235394938305</v>
       </c>
       <c r="S15">
-        <v>0.00214024637752984</v>
+        <v>0.003715361060513893</v>
       </c>
       <c r="T15">
-        <v>0.002910450982393423</v>
+        <v>0.004509510262078561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H16">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I16">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J16">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N16">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O16">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P16">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q16">
-        <v>163.6888668709312</v>
+        <v>184.74158734614</v>
       </c>
       <c r="R16">
-        <v>1473.199801838381</v>
+        <v>1662.67428611526</v>
       </c>
       <c r="S16">
-        <v>0.0254878283270676</v>
+        <v>0.04893584166286697</v>
       </c>
       <c r="T16">
-        <v>0.03466006333308445</v>
+        <v>0.05939575631220808</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H17">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I17">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J17">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N17">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O17">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P17">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q17">
-        <v>14.9442708957465</v>
+        <v>19.202359913505</v>
       </c>
       <c r="R17">
-        <v>89.66562537447902</v>
+        <v>115.21415948103</v>
       </c>
       <c r="S17">
-        <v>0.002326957345024064</v>
+        <v>0.005086475967752901</v>
       </c>
       <c r="T17">
-        <v>0.002109568743086902</v>
+        <v>0.004115798384204247</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H18">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I18">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J18">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N18">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O18">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P18">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q18">
-        <v>64.84989358979367</v>
+        <v>40.220708804337</v>
       </c>
       <c r="R18">
-        <v>583.6490423081431</v>
+        <v>361.986379239033</v>
       </c>
       <c r="S18">
-        <v>0.01009771150867922</v>
+        <v>0.0106539857424173</v>
       </c>
       <c r="T18">
-        <v>0.01373154730638065</v>
+        <v>0.01293124874136033</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H19">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I19">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J19">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N19">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O19">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P19">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q19">
-        <v>239.4550555231593</v>
+        <v>165.445030315266</v>
       </c>
       <c r="R19">
-        <v>2155.095499708434</v>
+        <v>1489.005272837394</v>
       </c>
       <c r="S19">
-        <v>0.03728530512728818</v>
+        <v>0.04382441400293211</v>
       </c>
       <c r="T19">
-        <v>0.05070306581329161</v>
+        <v>0.0531917736814701</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H20">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I20">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J20">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N20">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O20">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P20">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q20">
-        <v>524.5035401909137</v>
+        <v>168.35944443516</v>
       </c>
       <c r="R20">
-        <v>2098.014160763655</v>
+        <v>673.4377777406401</v>
       </c>
       <c r="S20">
-        <v>0.08166991711089457</v>
+        <v>0.04459640752079627</v>
       </c>
       <c r="T20">
-        <v>0.04936010960294292</v>
+        <v>0.02405723506530801</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H21">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I21">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J21">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>16.078605</v>
       </c>
       <c r="O21">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P21">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q21">
-        <v>93.61860213228749</v>
+        <v>25.64384214799</v>
       </c>
       <c r="R21">
-        <v>561.711612793725</v>
+        <v>153.86305288794</v>
       </c>
       <c r="S21">
-        <v>0.01457725809324135</v>
+        <v>0.006792747734868984</v>
       </c>
       <c r="T21">
-        <v>0.01321542403824962</v>
+        <v>0.005496453798017628</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H22">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I22">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J22">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N22">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O22">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P22">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q22">
-        <v>1114.887932725642</v>
+        <v>337.76071249668</v>
       </c>
       <c r="R22">
-        <v>6689.327596353854</v>
+        <v>2026.56427498008</v>
       </c>
       <c r="S22">
-        <v>0.1735980752780001</v>
+        <v>0.08946878168642095</v>
       </c>
       <c r="T22">
-        <v>0.1573802262639795</v>
+        <v>0.07239500774922024</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H23">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I23">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J23">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N23">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O23">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P23">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q23">
-        <v>101.7857084818612</v>
+        <v>35.10743227431</v>
       </c>
       <c r="R23">
-        <v>407.142833927445</v>
+        <v>140.42972909724</v>
       </c>
       <c r="S23">
-        <v>0.01584894998375322</v>
+        <v>0.009299539814749546</v>
       </c>
       <c r="T23">
-        <v>0.009578874767650052</v>
+        <v>0.005016574826532714</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H24">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I24">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J24">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N24">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O24">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P24">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q24">
-        <v>441.6938377294275</v>
+        <v>73.53501427602734</v>
       </c>
       <c r="R24">
-        <v>2650.163026376565</v>
+        <v>441.210085656164</v>
       </c>
       <c r="S24">
-        <v>0.06877570188110653</v>
+        <v>0.0194785476674834</v>
       </c>
       <c r="T24">
-        <v>0.06235055029371196</v>
+        <v>0.01576135924454016</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H25">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I25">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J25">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N25">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O25">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P25">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q25">
-        <v>1630.932860225745</v>
+        <v>302.4810608215587</v>
       </c>
       <c r="R25">
-        <v>9785.597161354468</v>
+        <v>1814.886364929352</v>
       </c>
       <c r="S25">
-        <v>0.2539509103400676</v>
+        <v>0.08012362300777377</v>
       </c>
       <c r="T25">
-        <v>0.2302263528282813</v>
+        <v>0.06483323232089744</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H26">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I26">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J26">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N26">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O26">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P26">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q26">
-        <v>32.8123231683215</v>
+        <v>172.38980345868</v>
       </c>
       <c r="R26">
-        <v>196.873939009929</v>
+        <v>1034.33882075208</v>
       </c>
       <c r="S26">
-        <v>0.005109173738650631</v>
+        <v>0.04566400152522552</v>
       </c>
       <c r="T26">
-        <v>0.004631865403594821</v>
+        <v>0.03694971231267866</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H27">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I27">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J27">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>16.078605</v>
       </c>
       <c r="O27">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P27">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q27">
-        <v>5.856669387995</v>
+        <v>26.25773043293667</v>
       </c>
       <c r="R27">
-        <v>52.710024491955</v>
+        <v>236.31957389643</v>
       </c>
       <c r="S27">
-        <v>0.0009119360820507793</v>
+        <v>0.006955359415013058</v>
       </c>
       <c r="T27">
-        <v>0.001240112023433477</v>
+        <v>0.008442050220041819</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H28">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I28">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J28">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N28">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O28">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P28">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q28">
-        <v>69.74607479625433</v>
+        <v>345.84637077364</v>
       </c>
       <c r="R28">
-        <v>627.714673166289</v>
+        <v>3112.61733696276</v>
       </c>
       <c r="S28">
-        <v>0.01086009094494768</v>
+        <v>0.09161057606453248</v>
       </c>
       <c r="T28">
-        <v>0.01476828214333199</v>
+        <v>0.1111921092322577</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H29">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I29">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J29">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N29">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O29">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P29">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q29">
-        <v>6.3675939335085</v>
+        <v>35.94786957163</v>
       </c>
       <c r="R29">
-        <v>38.205563601051</v>
+        <v>215.68721742978</v>
       </c>
       <c r="S29">
-        <v>0.0009914916275992817</v>
+        <v>0.009522161624489444</v>
       </c>
       <c r="T29">
-        <v>0.0008988646702478224</v>
+        <v>0.00770500001900515</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H30">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I30">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J30">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N30">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O30">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P30">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q30">
-        <v>27.631845801763</v>
+        <v>75.29536998001755</v>
       </c>
       <c r="R30">
-        <v>248.686612215867</v>
+        <v>677.658329820158</v>
       </c>
       <c r="S30">
-        <v>0.00430252683409838</v>
+        <v>0.0199448448842513</v>
       </c>
       <c r="T30">
-        <v>0.005850865387529948</v>
+        <v>0.02420800595586153</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H31">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I31">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J31">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N31">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O31">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P31">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q31">
-        <v>102.029237125994</v>
+        <v>309.7221590386271</v>
       </c>
       <c r="R31">
-        <v>918.2631341339459</v>
+        <v>2787.499431347644</v>
       </c>
       <c r="S31">
-        <v>0.01588686958325336</v>
+        <v>0.08204170350554391</v>
       </c>
       <c r="T31">
-        <v>0.02160403384917832</v>
+        <v>0.09957791392298342</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H32">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I32">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J32">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>30.0270995</v>
+        <v>35.18694</v>
       </c>
       <c r="N32">
-        <v>60.054199</v>
+        <v>70.37388</v>
       </c>
       <c r="O32">
-        <v>0.1342326156631674</v>
+        <v>0.1785572969025014</v>
       </c>
       <c r="P32">
-        <v>0.09453939633554115</v>
+        <v>0.1282643028201015</v>
       </c>
       <c r="Q32">
-        <v>79.1590911923725</v>
+        <v>70.07470890713999</v>
       </c>
       <c r="R32">
-        <v>474.954547154235</v>
+        <v>420.44825344284</v>
       </c>
       <c r="S32">
-        <v>0.0123257822319019</v>
+        <v>0.01856195407277876</v>
       </c>
       <c r="T32">
-        <v>0.0111742851608856</v>
+        <v>0.01501968377807297</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H33">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I33">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J33">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>16.078605</v>
       </c>
       <c r="O33">
-        <v>0.02395917067475312</v>
+        <v>0.02719713854783473</v>
       </c>
       <c r="P33">
-        <v>0.02531149588087277</v>
+        <v>0.02930506404712654</v>
       </c>
       <c r="Q33">
-        <v>14.129100941425</v>
+        <v>10.67350144691833</v>
       </c>
       <c r="R33">
-        <v>127.161908472825</v>
+        <v>96.06151302226499</v>
       </c>
       <c r="S33">
-        <v>0.002200028053800413</v>
+        <v>0.002827283148845859</v>
       </c>
       <c r="T33">
-        <v>0.002991746126848533</v>
+        <v>0.003431607901859937</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H34">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I34">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J34">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>63.82578633333333</v>
+        <v>70.59161999999999</v>
       </c>
       <c r="N34">
-        <v>191.477359</v>
+        <v>211.77486</v>
       </c>
       <c r="O34">
-        <v>0.2853256687773582</v>
+        <v>0.3582195226742806</v>
       </c>
       <c r="P34">
-        <v>0.3014302785352894</v>
+        <v>0.3859834752997077</v>
       </c>
       <c r="Q34">
-        <v>168.2610483501817</v>
+        <v>140.58304651622</v>
       </c>
       <c r="R34">
-        <v>1514.349435151635</v>
+        <v>1265.24741864598</v>
       </c>
       <c r="S34">
-        <v>0.02619975809267115</v>
+        <v>0.03723877121349713</v>
       </c>
       <c r="T34">
-        <v>0.03562819331449688</v>
+        <v>0.04519846609772936</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H35">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I35">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J35">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.827090500000001</v>
+        <v>7.337415</v>
       </c>
       <c r="N35">
-        <v>11.654181</v>
+        <v>14.67483</v>
       </c>
       <c r="O35">
-        <v>0.0260493225301696</v>
+        <v>0.03723395636710288</v>
       </c>
       <c r="P35">
-        <v>0.018346414653289</v>
+        <v>0.0267465263952124</v>
       </c>
       <c r="Q35">
-        <v>15.3616964660775</v>
+        <v>14.612444851865</v>
       </c>
       <c r="R35">
-        <v>92.17017879646502</v>
+        <v>87.67466911119</v>
       </c>
       <c r="S35">
-        <v>0.002391954259470994</v>
+        <v>0.003870662246927922</v>
       </c>
       <c r="T35">
-        <v>0.002168493527164935</v>
+        <v>0.00313200446098721</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H36">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I36">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J36">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>25.286359</v>
+        <v>15.36873766666667</v>
       </c>
       <c r="N36">
-        <v>75.859077</v>
+        <v>46.106213</v>
       </c>
       <c r="O36">
-        <v>0.1130396930002472</v>
+        <v>0.07798917025929666</v>
       </c>
       <c r="P36">
-        <v>0.1194199817093778</v>
+        <v>0.0840337532351506</v>
       </c>
       <c r="Q36">
-        <v>66.66129034554501</v>
+        <v>30.60680520277878</v>
       </c>
       <c r="R36">
-        <v>599.951613109905</v>
+        <v>275.461246825009</v>
       </c>
       <c r="S36">
-        <v>0.0103797622701351</v>
+        <v>0.008107377416883983</v>
       </c>
       <c r="T36">
-        <v>0.01411509890323536</v>
+        <v>0.009840309209389579</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H37">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I37">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J37">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>93.36864199999998</v>
+        <v>63.21821133333334</v>
       </c>
       <c r="N37">
-        <v>280.105926</v>
+        <v>189.654634</v>
       </c>
       <c r="O37">
-        <v>0.4173935293543045</v>
+        <v>0.3208029152489838</v>
       </c>
       <c r="P37">
-        <v>0.4409524328856299</v>
+        <v>0.3456668782027013</v>
       </c>
       <c r="Q37">
-        <v>246.14354931571</v>
+        <v>125.8989203611736</v>
       </c>
       <c r="R37">
-        <v>2215.29194384139</v>
+        <v>1133.090283250562</v>
       </c>
       <c r="S37">
-        <v>0.03832676374820715</v>
+        <v>0.0333491214448473</v>
       </c>
       <c r="T37">
-        <v>0.05211931129708215</v>
+        <v>0.04047741334890398</v>
       </c>
     </row>
   </sheetData>
